--- a/biology/Botanique/Penstemon_cardinalis/Penstemon_cardinalis.xlsx
+++ b/biology/Botanique/Penstemon_cardinalis/Penstemon_cardinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penstemon cardinalis  est une espèce de plantes de la famille des Plantaginacées, originaire des États-Unis. Elle est connue sous le nom vernaculaire de Cardinal Beardtongue en anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est pérenne, et peut atteindre un mètre de hauteur. Les fleurs sont généralement de couleur rouge.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 juillet 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 juillet 2023) :
 Penstemon cardinalis var. cardinalis Wooton &amp; Standl.
 Penstemon cardinalis var. regalis (A.Nelson) C.C.Freeman</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Penstemon cardinalis  Wooton &amp; Standl.[1],[2]. Le type a été collecté à 2 400 m sur le pic White Mountain en Californie le 6 juillet 1895[2].
-Penstemon cardinalis a pour synonyme[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Penstemon cardinalis  Wooton &amp; Standl.,. Le type a été collecté à 2 400 m sur le pic White Mountain en Californie le 6 juillet 1895.
+Penstemon cardinalis a pour synonyme :
 Penstemon crassulus Wooton &amp; Standl.</t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) E. O. Wooton et Paul C. Standley, « Descriptions of New Plants Preliminary to a Report upon the Flora of New Mexico », Contributions from the United States National Herbarium, vol. 16, no 4,‎ 1913, p. 109-196 (ISSN 0097-1618, lire en ligne)</t>
         </is>
